--- a/Results/_norm_and_f_distance.xlsx
+++ b/Results/_norm_and_f_distance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -1899,11 +1899,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="375874296"/>
-        <c:axId val="375873904"/>
+        <c:axId val="258137408"/>
+        <c:axId val="332300288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="375874296"/>
+        <c:axId val="258137408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,12 +1913,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="375873904"/>
+        <c:crossAx val="332300288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="375873904"/>
+        <c:axId val="332300288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="375874296"/>
+        <c:crossAx val="258137408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3756,11 +3756,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="375873120"/>
-        <c:axId val="375872728"/>
+        <c:axId val="332304896"/>
+        <c:axId val="332305472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="375873120"/>
+        <c:axId val="332304896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3770,13 +3770,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="375872728"/>
+        <c:crossAx val="332305472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="375872728"/>
+        <c:axId val="332305472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +3813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="375873120"/>
+        <c:crossAx val="332304896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5614,11 +5614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="443883416"/>
-        <c:axId val="443883808"/>
+        <c:axId val="332498048"/>
+        <c:axId val="332498624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="443883416"/>
+        <c:axId val="332498048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12"/>
@@ -5630,13 +5630,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443883808"/>
+        <c:crossAx val="332498624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="443883808"/>
+        <c:axId val="332498624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5673,7 +5673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="443883416"/>
+        <c:crossAx val="332498048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5703,6 +5703,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -6076,7 +6081,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>data in Celsius</a:t>
+            <a:t>data [°C]</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1200">
             <a:latin typeface="Garamond" panose="02020404030301010803" pitchFamily="18" charset="0"/>
@@ -6131,7 +6136,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6166,7 +6171,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -22179,8 +22184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
